--- a/spec/fixtures/good_pqc_structural.xlsx
+++ b/spec/fixtures/good_pqc_structural.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/xlsx_to_marmite/spec/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/xlsx_to_pqc_xml/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51BCBB0-0C25-5540-8B2D-55242F8B52B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6183EAC-ED14-124D-A3E5-CC7944C13823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ARK ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>0007.tif</t>
+  </si>
+  <si>
+    <t>FILLER</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +459,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +481,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -496,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -510,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -524,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -541,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -555,7 +561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -572,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
